--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl2-Cxcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl2-Cxcr1.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.7621465</v>
+        <v>7.474131</v>
       </c>
       <c r="H2">
-        <v>3.524293</v>
+        <v>14.948262</v>
       </c>
       <c r="I2">
-        <v>0.004397468923509647</v>
+        <v>0.002368493638035435</v>
       </c>
       <c r="J2">
-        <v>0.00294040225471891</v>
+        <v>0.001580807736380949</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.02992966666666666</v>
+        <v>0.3657716666666667</v>
       </c>
       <c r="N2">
-        <v>0.08978899999999999</v>
+        <v>1.097315</v>
       </c>
       <c r="O2">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="P2">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="Q2">
-        <v>0.05274045736283333</v>
+        <v>2.733825352755</v>
       </c>
       <c r="R2">
-        <v>0.316442744177</v>
+        <v>16.40295211653</v>
       </c>
       <c r="S2">
-        <v>0.0008521679220552631</v>
+        <v>7.246609292957766E-05</v>
       </c>
       <c r="T2">
-        <v>0.0005698087975140474</v>
+        <v>4.836616763023926E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.7621465</v>
+        <v>7.474131</v>
       </c>
       <c r="H3">
-        <v>3.524293</v>
+        <v>14.948262</v>
       </c>
       <c r="I3">
-        <v>0.004397468923509647</v>
+        <v>0.002368493638035435</v>
       </c>
       <c r="J3">
-        <v>0.00294040225471891</v>
+        <v>0.001580807736380949</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0003833333333333333</v>
+        <v>11.510206</v>
       </c>
       <c r="N3">
-        <v>0.00115</v>
+        <v>34.530618</v>
       </c>
       <c r="O3">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="P3">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="Q3">
-        <v>0.0006754894916666667</v>
+        <v>86.02878748098598</v>
       </c>
       <c r="R3">
-        <v>0.00405293695</v>
+        <v>516.172724885916</v>
       </c>
       <c r="S3">
-        <v>1.09144005430905E-05</v>
+        <v>0.002280383456804788</v>
       </c>
       <c r="T3">
-        <v>7.297999945885961E-06</v>
+        <v>0.00152200020829366</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.7621465</v>
+        <v>7.474131</v>
       </c>
       <c r="H4">
-        <v>3.524293</v>
+        <v>14.948262</v>
       </c>
       <c r="I4">
-        <v>0.004397468923509647</v>
+        <v>0.002368493638035435</v>
       </c>
       <c r="J4">
-        <v>0.00294040225471891</v>
+        <v>0.001580807736380949</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.124134</v>
+        <v>0.07896333333333333</v>
       </c>
       <c r="N4">
-        <v>0.372402</v>
+        <v>0.23689</v>
       </c>
       <c r="O4">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="P4">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="Q4">
-        <v>0.218742293631</v>
+        <v>0.59018229753</v>
       </c>
       <c r="R4">
-        <v>1.312453761786</v>
+        <v>3.54109378518</v>
       </c>
       <c r="S4">
-        <v>0.003534386600911293</v>
+        <v>1.564408830106911E-05</v>
       </c>
       <c r="T4">
-        <v>0.002363295457258977</v>
+        <v>1.04413604570496E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.63660866666667</v>
+        <v>28.63660866666666</v>
       </c>
       <c r="H5">
-        <v>85.90982600000001</v>
+        <v>85.909826</v>
       </c>
       <c r="I5">
-        <v>0.07146318236671793</v>
+        <v>0.009074717240293273</v>
       </c>
       <c r="J5">
-        <v>0.071676630198712</v>
+        <v>0.009085130938428906</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02992966666666666</v>
+        <v>0.3657716666666667</v>
       </c>
       <c r="N5">
-        <v>0.08978899999999999</v>
+        <v>1.097315</v>
       </c>
       <c r="O5">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="P5">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="Q5">
-        <v>0.8570841518571112</v>
+        <v>10.47446007968778</v>
       </c>
       <c r="R5">
-        <v>7.713757366714001</v>
+        <v>94.27014071719</v>
       </c>
       <c r="S5">
-        <v>0.01384856440834123</v>
+        <v>0.0002776487520524613</v>
       </c>
       <c r="T5">
-        <v>0.01388992761036073</v>
+        <v>0.0002779673680726688</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.63660866666667</v>
+        <v>28.63660866666666</v>
       </c>
       <c r="H6">
-        <v>85.90982600000001</v>
+        <v>85.909826</v>
       </c>
       <c r="I6">
-        <v>0.07146318236671793</v>
+        <v>0.009074717240293273</v>
       </c>
       <c r="J6">
-        <v>0.071676630198712</v>
+        <v>0.009085130938428906</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0003833333333333333</v>
+        <v>11.510206</v>
       </c>
       <c r="N6">
-        <v>0.00115</v>
+        <v>34.530618</v>
       </c>
       <c r="O6">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="P6">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="Q6">
-        <v>0.01097736665555556</v>
+        <v>329.6132648947186</v>
       </c>
       <c r="R6">
-        <v>0.09879629990000001</v>
+        <v>2966.519384052468</v>
       </c>
       <c r="S6">
-        <v>0.0001773697119869073</v>
+        <v>0.008737129261242449</v>
       </c>
       <c r="T6">
-        <v>0.0001778994838110998</v>
+        <v>0.008747155560055881</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.63660866666667</v>
+        <v>28.63660866666666</v>
       </c>
       <c r="H7">
-        <v>85.90982600000001</v>
+        <v>85.909826</v>
       </c>
       <c r="I7">
-        <v>0.07146318236671793</v>
+        <v>0.009074717240293273</v>
       </c>
       <c r="J7">
-        <v>0.071676630198712</v>
+        <v>0.009085130938428906</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.124134</v>
+        <v>0.07896333333333333</v>
       </c>
       <c r="N7">
-        <v>0.372402</v>
+        <v>0.23689</v>
       </c>
       <c r="O7">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="P7">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="Q7">
-        <v>3.554776780228001</v>
+        <v>2.261242075682222</v>
       </c>
       <c r="R7">
-        <v>31.992991022052</v>
+        <v>20.35117868114</v>
       </c>
       <c r="S7">
-        <v>0.05743724824638979</v>
+        <v>5.993922699836196E-05</v>
       </c>
       <c r="T7">
-        <v>0.05760880310454017</v>
+        <v>6.00080103003554E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>249.2463</v>
+        <v>403.4856263333333</v>
       </c>
       <c r="H8">
-        <v>747.7389000000001</v>
+        <v>1210.456879</v>
       </c>
       <c r="I8">
-        <v>0.6219987149477996</v>
+        <v>0.1278614382072301</v>
       </c>
       <c r="J8">
-        <v>0.6238565146260648</v>
+        <v>0.1280081656903483</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.02992966666666666</v>
+        <v>0.3657716666666667</v>
       </c>
       <c r="N8">
-        <v>0.08978899999999999</v>
+        <v>1.097315</v>
       </c>
       <c r="O8">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="P8">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="Q8">
-        <v>7.4598586769</v>
+        <v>147.5836100199872</v>
       </c>
       <c r="R8">
-        <v>67.1387280921</v>
+        <v>1328.252490179885</v>
       </c>
       <c r="S8">
-        <v>0.1205346442823924</v>
+        <v>0.003912030294039558</v>
       </c>
       <c r="T8">
-        <v>0.12089465985475</v>
+        <v>0.00391651954714804</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>249.2463</v>
+        <v>403.4856263333333</v>
       </c>
       <c r="H9">
-        <v>747.7389000000001</v>
+        <v>1210.456879</v>
       </c>
       <c r="I9">
-        <v>0.6219987149477996</v>
+        <v>0.1278614382072301</v>
       </c>
       <c r="J9">
-        <v>0.6238565146260648</v>
+        <v>0.1280081656903483</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0003833333333333333</v>
+        <v>11.510206</v>
       </c>
       <c r="N9">
-        <v>0.00115</v>
+        <v>34.530618</v>
       </c>
       <c r="O9">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="P9">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="Q9">
-        <v>0.09554441500000001</v>
+        <v>4644.20267713569</v>
       </c>
       <c r="R9">
-        <v>0.8598997350000001</v>
+        <v>41797.82409422121</v>
       </c>
       <c r="S9">
-        <v>0.001543784215491333</v>
+        <v>0.1231048729744035</v>
       </c>
       <c r="T9">
-        <v>0.001548395224726442</v>
+        <v>0.1232461420577518</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>249.2463</v>
+        <v>403.4856263333333</v>
       </c>
       <c r="H10">
-        <v>747.7389000000001</v>
+        <v>1210.456879</v>
       </c>
       <c r="I10">
-        <v>0.6219987149477996</v>
+        <v>0.1278614382072301</v>
       </c>
       <c r="J10">
-        <v>0.6238565146260648</v>
+        <v>0.1280081656903483</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.124134</v>
+        <v>0.07896333333333333</v>
       </c>
       <c r="N10">
-        <v>0.372402</v>
+        <v>0.23689</v>
       </c>
       <c r="O10">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="P10">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="Q10">
-        <v>30.9399402042</v>
+        <v>31.86057000736777</v>
       </c>
       <c r="R10">
-        <v>278.4594618378</v>
+        <v>286.74513006631</v>
       </c>
       <c r="S10">
-        <v>0.4999202864499159</v>
+        <v>0.0008445349387869761</v>
       </c>
       <c r="T10">
-        <v>0.5014134595465884</v>
+        <v>0.0008455040854484802</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.8177845</v>
+        <v>3.377213</v>
       </c>
       <c r="H11">
-        <v>3.635569</v>
+        <v>6.754426</v>
       </c>
       <c r="I11">
-        <v>0.00453631457338395</v>
+        <v>0.001070212377170077</v>
       </c>
       <c r="J11">
-        <v>0.00303324249283081</v>
+        <v>0.0007142936667562174</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.02992966666666666</v>
+        <v>0.3657716666666667</v>
       </c>
       <c r="N11">
-        <v>0.08978899999999999</v>
+        <v>1.097315</v>
       </c>
       <c r="O11">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="P11">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="Q11">
-        <v>0.05440568415683333</v>
+        <v>1.235288827698333</v>
       </c>
       <c r="R11">
-        <v>0.3264341049409999</v>
+        <v>7.411732966190001</v>
       </c>
       <c r="S11">
-        <v>0.0008790742654536755</v>
+        <v>3.274406497571126E-05</v>
       </c>
       <c r="T11">
-        <v>0.0005877999360919616</v>
+        <v>2.185442696696422E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.8177845</v>
+        <v>3.377213</v>
       </c>
       <c r="H12">
-        <v>3.635569</v>
+        <v>6.754426</v>
       </c>
       <c r="I12">
-        <v>0.00453631457338395</v>
+        <v>0.001070212377170077</v>
       </c>
       <c r="J12">
-        <v>0.00303324249283081</v>
+        <v>0.0007142936667562174</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0003833333333333333</v>
+        <v>11.510206</v>
       </c>
       <c r="N12">
-        <v>0.00115</v>
+        <v>34.530618</v>
       </c>
       <c r="O12">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="P12">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="Q12">
-        <v>0.0006968173916666666</v>
+        <v>38.872417335878</v>
       </c>
       <c r="R12">
-        <v>0.00418090435</v>
+        <v>233.234504015268</v>
       </c>
       <c r="S12">
-        <v>1.125901174165796E-05</v>
+        <v>0.001030399474575181</v>
       </c>
       <c r="T12">
-        <v>7.528426939889696E-06</v>
+        <v>0.0006877212734767501</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.8177845</v>
+        <v>3.377213</v>
       </c>
       <c r="H13">
-        <v>3.635569</v>
+        <v>6.754426</v>
       </c>
       <c r="I13">
-        <v>0.00453631457338395</v>
+        <v>0.001070212377170077</v>
       </c>
       <c r="J13">
-        <v>0.00303324249283081</v>
+        <v>0.0007142936667562174</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.124134</v>
+        <v>0.07896333333333333</v>
       </c>
       <c r="N13">
-        <v>0.372402</v>
+        <v>0.23689</v>
       </c>
       <c r="O13">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="P13">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="Q13">
-        <v>0.225648861123</v>
+        <v>0.2666759958566667</v>
       </c>
       <c r="R13">
-        <v>1.353893166738</v>
+        <v>1.60005597514</v>
       </c>
       <c r="S13">
-        <v>0.003645981296188617</v>
+        <v>7.068837619185228E-06</v>
       </c>
       <c r="T13">
-        <v>0.002437914129798959</v>
+        <v>4.717966312502931E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.640366666666667</v>
+        <v>2406.316202666666</v>
       </c>
       <c r="H14">
-        <v>10.9211</v>
+        <v>7218.948608</v>
       </c>
       <c r="I14">
-        <v>0.009084601811964594</v>
+        <v>0.7625427781661288</v>
       </c>
       <c r="J14">
-        <v>0.009111735903913405</v>
+        <v>0.7634178346661893</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.02992966666666666</v>
+        <v>0.3657716666666667</v>
       </c>
       <c r="N14">
-        <v>0.08978899999999999</v>
+        <v>1.097315</v>
       </c>
       <c r="O14">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="P14">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="Q14">
-        <v>0.1089549608777778</v>
+        <v>880.162287976391</v>
       </c>
       <c r="R14">
-        <v>0.9805946478999998</v>
+        <v>7921.46059178752</v>
       </c>
       <c r="S14">
-        <v>0.001760468665830325</v>
+        <v>0.02333064988563768</v>
       </c>
       <c r="T14">
-        <v>0.001765726873029757</v>
+        <v>0.02335742298928199</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.640366666666667</v>
+        <v>2406.316202666666</v>
       </c>
       <c r="H15">
-        <v>10.9211</v>
+        <v>7218.948608</v>
       </c>
       <c r="I15">
-        <v>0.009084601811964594</v>
+        <v>0.7625427781661288</v>
       </c>
       <c r="J15">
-        <v>0.009111735903913405</v>
+        <v>0.7634178346661893</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0003833333333333333</v>
+        <v>11.510206</v>
       </c>
       <c r="N15">
-        <v>0.00115</v>
+        <v>34.530618</v>
       </c>
       <c r="O15">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="P15">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="Q15">
-        <v>0.001395473888888889</v>
+        <v>27697.19519383108</v>
       </c>
       <c r="R15">
-        <v>0.012559265</v>
+        <v>249274.7567444797</v>
       </c>
       <c r="S15">
-        <v>2.254773931890181E-05</v>
+        <v>0.7341754727609651</v>
       </c>
       <c r="T15">
-        <v>2.261508541117755E-05</v>
+        <v>0.7350179763398063</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.640366666666667</v>
+        <v>2406.316202666666</v>
       </c>
       <c r="H16">
-        <v>10.9211</v>
+        <v>7218.948608</v>
       </c>
       <c r="I16">
-        <v>0.009084601811964594</v>
+        <v>0.7625427781661288</v>
       </c>
       <c r="J16">
-        <v>0.009111735903913405</v>
+        <v>0.7634178346661893</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.124134</v>
+        <v>0.07896333333333333</v>
       </c>
       <c r="N16">
-        <v>0.372402</v>
+        <v>0.23689</v>
       </c>
       <c r="O16">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="P16">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="Q16">
-        <v>0.4518932758</v>
+        <v>190.0107484165689</v>
       </c>
       <c r="R16">
-        <v>4.0670394822</v>
+        <v>1710.09673574912</v>
       </c>
       <c r="S16">
-        <v>0.007301585406815367</v>
+        <v>0.005036655519526033</v>
       </c>
       <c r="T16">
-        <v>0.007323393945472471</v>
+        <v>0.005042435337101025</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>115.6151456666666</v>
+        <v>306.3577066666667</v>
       </c>
       <c r="H17">
-        <v>346.8454369999999</v>
+        <v>919.07312</v>
       </c>
       <c r="I17">
-        <v>0.2885197173766242</v>
+        <v>0.09708236037114229</v>
       </c>
       <c r="J17">
-        <v>0.28938147452376</v>
+        <v>0.09719376730189611</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.02992966666666666</v>
+        <v>0.3657716666666667</v>
       </c>
       <c r="N17">
-        <v>0.08978899999999999</v>
+        <v>1.097315</v>
       </c>
       <c r="O17">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="P17">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="Q17">
-        <v>3.460322771421444</v>
+        <v>112.0569689636445</v>
       </c>
       <c r="R17">
-        <v>31.14290494279299</v>
+        <v>1008.5127206728</v>
       </c>
       <c r="S17">
-        <v>0.05591108255805057</v>
+        <v>0.002970318026403197</v>
       </c>
       <c r="T17">
-        <v>0.05607807903037694</v>
+        <v>0.002973726616938278</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>115.6151456666666</v>
+        <v>306.3577066666667</v>
       </c>
       <c r="H18">
-        <v>346.8454369999999</v>
+        <v>919.07312</v>
       </c>
       <c r="I18">
-        <v>0.2885197173766242</v>
+        <v>0.09708236037114229</v>
       </c>
       <c r="J18">
-        <v>0.28938147452376</v>
+        <v>0.09719376730189611</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0003833333333333333</v>
+        <v>11.510206</v>
       </c>
       <c r="N18">
-        <v>0.00115</v>
+        <v>34.530618</v>
       </c>
       <c r="O18">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="P18">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="Q18">
-        <v>0.04431913917222222</v>
+        <v>3526.240313420906</v>
       </c>
       <c r="R18">
-        <v>0.3988722525499999</v>
+        <v>31736.16282078816</v>
       </c>
       <c r="S18">
-        <v>0.00071609824078404</v>
+        <v>0.09347080565584423</v>
       </c>
       <c r="T18">
-        <v>0.0007182370990314347</v>
+        <v>0.09357806814445076</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>115.6151456666666</v>
+        <v>306.3577066666667</v>
       </c>
       <c r="H19">
-        <v>346.8454369999999</v>
+        <v>919.07312</v>
       </c>
       <c r="I19">
-        <v>0.2885197173766242</v>
+        <v>0.09708236037114229</v>
       </c>
       <c r="J19">
-        <v>0.28938147452376</v>
+        <v>0.09719376730189611</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.124134</v>
+        <v>0.07896333333333333</v>
       </c>
       <c r="N19">
-        <v>0.372402</v>
+        <v>0.23689</v>
       </c>
       <c r="O19">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="P19">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="Q19">
-        <v>14.351770492186</v>
+        <v>24.19102571075555</v>
       </c>
       <c r="R19">
-        <v>129.165934429674</v>
+        <v>217.7192313968</v>
       </c>
       <c r="S19">
-        <v>0.2318925365777896</v>
+        <v>0.000641236688894851</v>
       </c>
       <c r="T19">
-        <v>0.2325851583943516</v>
+        <v>0.0006419725405070636</v>
       </c>
     </row>
   </sheetData>
